--- a/writable/PERHITUNGAN MANUAL real data.xlsx
+++ b/writable/PERHITUNGAN MANUAL real data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYEK\CI4\klasterisasi-gastronomi\writable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F214087-0181-42F4-99F7-B075E25F3A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD8ACA0-CDA2-41CC-9BAF-7BD1D0EDE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Means" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>1. Perhitungan K-Means Clustering</t>
   </si>
@@ -63,6 +64,9 @@
     <t>Centroid 3 (Klaster Rendah)</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Nama Wisata</t>
   </si>
   <si>
@@ -139,13 +143,61 @@
   </si>
   <si>
     <t>Sate Kere Yu Rebi</t>
+  </si>
+  <si>
+    <t>Klaster</t>
+  </si>
+  <si>
+    <t>KULINER</t>
+  </si>
+  <si>
+    <t>BUDAYA</t>
+  </si>
+  <si>
+    <t>EKONOMI</t>
+  </si>
+  <si>
+    <t>INFRASTRUKTUR</t>
+  </si>
+  <si>
+    <t>NAMA WISATA</t>
+  </si>
+  <si>
+    <t>Sangat Bagus</t>
+  </si>
+  <si>
+    <t>Cukup Bagus</t>
+  </si>
+  <si>
+    <t>Kurang Bagus</t>
+  </si>
+  <si>
+    <t>KLASTER</t>
+  </si>
+  <si>
+    <t>JUMLAH</t>
+  </si>
+  <si>
+    <t>NILAI KRITERIA</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +246,26 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -209,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -319,6 +391,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -332,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,11 +454,32 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,6 +730,925 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JUMLAH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$I$3:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sangat Bagus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cukup Bagus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kurang Bagus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC7C-4304-90FA-84BF0BF17CAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6304F6-D627-4417-B7EF-9C2805783DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,19 +1990,19 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1002,7 +2023,7 @@
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11">
         <v>10</v>
@@ -1035,7 +2056,7 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="11">
         <v>7</v>
@@ -1068,7 +2089,7 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="11">
         <v>7</v>
@@ -1101,7 +2122,7 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="11">
         <v>7</v>
@@ -1134,7 +2155,7 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11">
         <v>9</v>
@@ -1167,7 +2188,7 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="11">
         <v>9</v>
@@ -1200,7 +2221,7 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="11">
         <v>7</v>
@@ -1233,7 +2254,7 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11">
         <v>7</v>
@@ -1266,7 +2287,7 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="11">
         <v>8</v>
@@ -1299,7 +2320,7 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="11">
         <v>9</v>
@@ -1332,7 +2353,7 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="11">
         <v>8</v>
@@ -1365,7 +2386,7 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="11">
         <v>7</v>
@@ -1398,7 +2419,7 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="11">
         <v>7</v>
@@ -1431,7 +2452,7 @@
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="11">
         <v>8</v>
@@ -1464,7 +2485,7 @@
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="11">
         <v>8</v>
@@ -1497,7 +2518,7 @@
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="11">
         <v>8</v>
@@ -1530,7 +2551,7 @@
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="11">
         <v>6</v>
@@ -1547,7 +2568,7 @@
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="11">
         <v>8</v>
@@ -1564,7 +2585,7 @@
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="11">
         <v>9</v>
@@ -1581,7 +2602,7 @@
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="11">
         <v>7</v>
@@ -1598,7 +2619,7 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="11">
         <v>9</v>
@@ -1725,7 +2746,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>3</v>
@@ -1742,7 +2763,7 @@
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="8">
         <f t="shared" ref="B35:B40" si="0">SQRT((B4-$C$28)^2+(C4-$D$28)^2+(D4-$E$28)^2+(E4-$F$28)^2)</f>
@@ -1763,7 +2784,7 @@
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="8">
         <f t="shared" si="0"/>
@@ -1784,7 +2805,7 @@
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="8">
         <f t="shared" si="0"/>
@@ -1805,7 +2826,7 @@
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" s="8">
         <f t="shared" si="0"/>
@@ -1826,7 +2847,7 @@
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" s="8">
         <f t="shared" si="0"/>
@@ -1847,7 +2868,7 @@
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" s="8">
         <f t="shared" si="0"/>
@@ -1868,7 +2889,7 @@
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B55" si="4">SQRT((B10-$C$28)^2+(C10-$D$28)^2+(D10-$E$28)^2+(E10-$F$28)^2)</f>
@@ -1889,7 +2910,7 @@
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B42" s="13">
         <f t="shared" si="4"/>
@@ -1910,7 +2931,7 @@
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" s="13">
         <f t="shared" si="4"/>
@@ -1931,7 +2952,7 @@
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" s="13">
         <f t="shared" si="4"/>
@@ -1952,7 +2973,7 @@
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" s="13">
         <f t="shared" si="4"/>
@@ -1973,7 +2994,7 @@
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" s="13">
         <f t="shared" si="4"/>
@@ -1994,7 +3015,7 @@
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B47" s="13">
         <f t="shared" si="4"/>
@@ -2015,7 +3036,7 @@
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" s="13">
         <f t="shared" si="4"/>
@@ -2036,7 +3057,7 @@
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" s="13">
         <f t="shared" si="4"/>
@@ -2057,7 +3078,7 @@
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50" s="13">
         <f t="shared" si="4"/>
@@ -2078,7 +3099,7 @@
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51" s="13">
         <f t="shared" si="4"/>
@@ -2099,7 +3120,7 @@
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" s="13">
         <f t="shared" si="4"/>
@@ -2120,7 +3141,7 @@
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B53" s="13">
         <f t="shared" si="4"/>
@@ -2141,7 +3162,7 @@
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" s="13">
         <f t="shared" si="4"/>
@@ -2162,7 +3183,7 @@
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B55" s="18">
         <f t="shared" si="4"/>
@@ -2193,4 +3214,599 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259CCF08-CB78-4781-A6B0-35C575C659FF}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="26">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26">
+        <v>10</v>
+      </c>
+      <c r="F3" s="26">
+        <v>10</v>
+      </c>
+      <c r="G3" s="26">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C3:C23,I3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="26">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>6</v>
+      </c>
+      <c r="F4" s="26">
+        <v>8</v>
+      </c>
+      <c r="G4" s="26">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="0">COUNTIF(C4:C24,I4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="26">
+        <v>7</v>
+      </c>
+      <c r="E5" s="26">
+        <v>10</v>
+      </c>
+      <c r="F5" s="26">
+        <v>8</v>
+      </c>
+      <c r="G5" s="26">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="26">
+        <v>7</v>
+      </c>
+      <c r="E6" s="26">
+        <v>6</v>
+      </c>
+      <c r="F6" s="26">
+        <v>7</v>
+      </c>
+      <c r="G6" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="26">
+        <v>9</v>
+      </c>
+      <c r="E7" s="26">
+        <v>6</v>
+      </c>
+      <c r="F7" s="26">
+        <v>9</v>
+      </c>
+      <c r="G7" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="26">
+        <v>9</v>
+      </c>
+      <c r="E8" s="26">
+        <v>9</v>
+      </c>
+      <c r="F8" s="26">
+        <v>8</v>
+      </c>
+      <c r="G8" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="26">
+        <v>7</v>
+      </c>
+      <c r="E9" s="26">
+        <v>7</v>
+      </c>
+      <c r="F9" s="26">
+        <v>7</v>
+      </c>
+      <c r="G9" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="26">
+        <v>7</v>
+      </c>
+      <c r="E10" s="26">
+        <v>6</v>
+      </c>
+      <c r="F10" s="26">
+        <v>7</v>
+      </c>
+      <c r="G10" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="26">
+        <v>8</v>
+      </c>
+      <c r="E11" s="26">
+        <v>5</v>
+      </c>
+      <c r="F11" s="26">
+        <v>8</v>
+      </c>
+      <c r="G11" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="26">
+        <v>9</v>
+      </c>
+      <c r="E12" s="26">
+        <v>9</v>
+      </c>
+      <c r="F12" s="26">
+        <v>9</v>
+      </c>
+      <c r="G12" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="26">
+        <v>8</v>
+      </c>
+      <c r="E13" s="26">
+        <v>7</v>
+      </c>
+      <c r="F13" s="26">
+        <v>5</v>
+      </c>
+      <c r="G13" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="26">
+        <v>7</v>
+      </c>
+      <c r="E14" s="26">
+        <v>5</v>
+      </c>
+      <c r="F14" s="26">
+        <v>7</v>
+      </c>
+      <c r="G14" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="26">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26">
+        <v>5</v>
+      </c>
+      <c r="F15" s="26">
+        <v>6</v>
+      </c>
+      <c r="G15" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="26">
+        <v>8</v>
+      </c>
+      <c r="E16" s="26">
+        <v>5</v>
+      </c>
+      <c r="F16" s="26">
+        <v>6</v>
+      </c>
+      <c r="G16" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="26">
+        <v>8</v>
+      </c>
+      <c r="E17" s="26">
+        <v>8</v>
+      </c>
+      <c r="F17" s="26">
+        <v>8</v>
+      </c>
+      <c r="G17" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="26">
+        <v>8</v>
+      </c>
+      <c r="E18" s="26">
+        <v>6</v>
+      </c>
+      <c r="F18" s="26">
+        <v>8</v>
+      </c>
+      <c r="G18" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="26">
+        <v>6</v>
+      </c>
+      <c r="E19" s="26">
+        <v>5</v>
+      </c>
+      <c r="F19" s="26">
+        <v>5</v>
+      </c>
+      <c r="G19" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="26">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26">
+        <v>6</v>
+      </c>
+      <c r="F20" s="26">
+        <v>7</v>
+      </c>
+      <c r="G20" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="26">
+        <v>9</v>
+      </c>
+      <c r="E21" s="26">
+        <v>10</v>
+      </c>
+      <c r="F21" s="26">
+        <v>9</v>
+      </c>
+      <c r="G21" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="26">
+        <v>7</v>
+      </c>
+      <c r="E22" s="26">
+        <v>7</v>
+      </c>
+      <c r="F22" s="26">
+        <v>7</v>
+      </c>
+      <c r="G22" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="26">
+        <v>9</v>
+      </c>
+      <c r="E23" s="26">
+        <v>8</v>
+      </c>
+      <c r="F23" s="26">
+        <v>5</v>
+      </c>
+      <c r="G23" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="14" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>